--- a/src/main/resources/Project Documentation/generated-data.xlsx
+++ b/src/main/resources/Project Documentation/generated-data.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oisin\IdeaProjects\ShopTrawlerREST\src\main\resources\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="ShoppingCentre" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="271">
   <si>
     <t xml:space="preserve">shoppingCentreId
 </t>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t>? How to ID a point of Interest</t>
-  </si>
-  <si>
-    <t>? What goes in here</t>
   </si>
   <si>
     <t>? Location types</t>
@@ -1323,10 +1320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1338,7 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1408,9 +1406,6 @@
       </c>
       <c r="K2" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1424,6 +1419,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3564,9 +3560,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3607,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3643,7 +3640,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3661,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3679,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3697,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3715,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3733,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3769,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3786,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3804,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3822,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3858,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3876,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3894,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,7 +3927,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3948,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3965,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3983,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4001,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4019,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4037,7 +4034,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4091,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4109,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4144,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4162,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4180,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4198,7 +4195,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4216,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4234,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4252,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,7 +4267,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4288,7 +4285,7 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4306,7 +4303,7 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4323,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4341,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4359,7 +4356,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4377,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4395,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4431,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4449,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,7 +4464,7 @@
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4502,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4520,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4538,7 +4535,7 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4556,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4574,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4592,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4628,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4646,7 +4643,7 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4664,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,7 +4678,7 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4699,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4717,7 +4714,7 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4735,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4771,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4789,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4825,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4843,7 +4840,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4860,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4878,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4896,7 +4893,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4914,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4932,7 +4929,7 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4950,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4968,7 +4965,7 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4986,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5004,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -5022,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5039,7 +5036,7 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5075,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5093,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5111,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5129,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,7 +5144,7 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5165,7 +5162,7 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5183,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5201,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5218,7 +5215,7 @@
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5236,7 +5233,7 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5254,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5272,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5290,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5308,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5326,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5344,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5362,7 +5359,7 @@
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5380,7 +5377,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5390,6 +5387,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5447,7 +5445,7 @@
         <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="19">
         <v>42736</v>
@@ -5473,7 +5471,7 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3" s="19">
         <v>42736</v>
@@ -5499,7 +5497,7 @@
         <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G4" s="19">
         <v>42736</v>
@@ -5542,6 +5540,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5725,6 +5724,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5942,10 +5942,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,22 +6231,167 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>70</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>70</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
   </sheetData>
@@ -6256,6 +6402,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6370,6 +6517,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -6472,19 +6620,19 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K2" t="s">
         <v>96</v>
       </c>
       <c r="L2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" t="s">
         <v>268</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>269</v>
-      </c>
-      <c r="N2" t="s">
-        <v>270</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -6525,19 +6673,19 @@
         <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K3" t="s">
         <v>96</v>
       </c>
       <c r="L3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M3" t="s">
         <v>268</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>269</v>
-      </c>
-      <c r="N3" t="s">
-        <v>270</v>
       </c>
       <c r="O3" t="s">
         <v>55</v>
@@ -6578,19 +6726,19 @@
         <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K4" t="s">
         <v>96</v>
       </c>
       <c r="L4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M4" t="s">
         <v>268</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>269</v>
-      </c>
-      <c r="N4" t="s">
-        <v>270</v>
       </c>
       <c r="O4" t="s">
         <v>109</v>
@@ -6660,6 +6808,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6821,19 +6970,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
         <v>227</v>
       </c>
-      <c r="C6" t="s">
-        <v>228</v>
-      </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G6">
         <v>333333</v>
@@ -6850,19 +6999,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
         <v>229</v>
       </c>
-      <c r="C7" t="s">
-        <v>230</v>
-      </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7">
         <v>333333</v>
@@ -6879,19 +7028,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
         <v>231</v>
       </c>
-      <c r="C8" t="s">
-        <v>232</v>
-      </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G8">
         <v>333333</v>
@@ -6908,19 +7057,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
         <v>233</v>
       </c>
-      <c r="C9" t="s">
-        <v>234</v>
-      </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G9">
         <v>333333</v>
@@ -6937,19 +7086,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
         <v>235</v>
       </c>
-      <c r="C10" t="s">
-        <v>236</v>
-      </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10">
         <v>333333</v>
@@ -6966,19 +7115,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
         <v>237</v>
       </c>
-      <c r="C11" t="s">
-        <v>238</v>
-      </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G11">
         <v>333333</v>
@@ -6995,19 +7144,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" t="s">
         <v>239</v>
       </c>
-      <c r="C12" t="s">
-        <v>240</v>
-      </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
         <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G12">
         <v>333333</v>
@@ -7024,19 +7173,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" t="s">
         <v>241</v>
       </c>
-      <c r="C13" t="s">
-        <v>242</v>
-      </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
         <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G13">
         <v>333333</v>
@@ -7053,19 +7202,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
         <v>243</v>
       </c>
-      <c r="C14" t="s">
-        <v>244</v>
-      </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G14">
         <v>333333</v>
@@ -7082,19 +7231,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" t="s">
         <v>245</v>
       </c>
-      <c r="C15" t="s">
-        <v>246</v>
-      </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G15">
         <v>333333</v>
@@ -7159,6 +7308,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7293,6 +7443,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10182,6 +10333,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
